--- a/metadata/TFseq_assignment_allExp.xlsx
+++ b/metadata/TFseq_assignment_allExp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gardeux\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F593F-0EF5-4791-8487-8A7508A57F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6889F8C-345A-4D4E-8033-D7069097F330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
